--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value621.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value621.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.267272611363717</v>
+        <v>1.282086133956909</v>
       </c>
       <c r="B1">
-        <v>2.491363208028111</v>
+        <v>2.933879137039185</v>
       </c>
       <c r="C1">
-        <v>4.310521535360484</v>
+        <v>5.343530178070068</v>
       </c>
       <c r="D1">
-        <v>2.591747896703748</v>
+        <v>1.853372573852539</v>
       </c>
       <c r="E1">
-        <v>1.038248518578446</v>
+        <v>1.019717574119568</v>
       </c>
     </row>
   </sheetData>
